--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_5_202306_new_reacti.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_5_202306_new_reacti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81165BC-7D31-409C-88DA-6750A8AC4FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806DD993-1564-4815-8F46-2ADF1D776AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="478">
   <si>
     <t>form_title</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>Le sang n.a pas coulé</t>
+  </si>
+  <si>
+    <t>regex(.,'^(0?[1-9]|00|10)$') and . &gt; 9 and . &lt; 1000</t>
   </si>
 </sst>
 </file>
@@ -1942,11 +1945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2333,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14" t="s">
-        <v>52</v>
+        <v>477</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>126</v>
@@ -2582,7 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B1:B31"/>
     </sheetView>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_5_202306_new_reacti.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_5_202306_new_reacti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806DD993-1564-4815-8F46-2ADF1D776AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CB3A2-95CA-4A91-9EC9-629DE1667508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="479">
   <si>
     <t>form_title</t>
   </si>
@@ -239,12 +239,6 @@
     <t>Entrer le nom du village</t>
   </si>
   <si>
-    <t>bj_oncho_stop_5_202306_new_reacti</t>
-  </si>
-  <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 5. Résultats de nouveau réactifs</t>
-  </si>
-  <si>
     <t>n_RecorderID</t>
   </si>
   <si>
@@ -1463,7 +1457,16 @@
     <t>Le sang n.a pas coulé</t>
   </si>
   <si>
-    <t>regex(.,'^(0?[1-9]|00|10)$') and . &gt; 9 and . &lt; 1000</t>
+    <t>regex(.,'^(0?[1-9]|00|10)$')</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 5. Résultats de nouveau réactifs V2</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_5_202306_new_reacti_v2</t>
+  </si>
+  <si>
+    <t>${n_type_test} = 'GADx' and ${n_result_gadx} != 'Invalide' and  ${n_result_gadx} != 'Manque de clarté'</t>
   </si>
 </sst>
 </file>
@@ -1589,16 +1592,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1609,7 +1609,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1618,14 +1618,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1640,12 +1637,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,10 +1937,10 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1969,606 +1960,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="C22" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
@@ -2586,8 +2577,8 @@
   <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B1:B31"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2598,88 +2589,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="1"/>
@@ -2687,13 +2678,13 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1"/>
@@ -2701,271 +2692,271 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>93</v>
+      <c r="B10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>91</v>
+      <c r="A11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="B17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="C19" s="14" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>108</v>
+      <c r="A31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="1"/>
@@ -2973,13 +2964,13 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="1"/>
@@ -2987,13 +2978,13 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="1"/>
@@ -3001,13 +2992,13 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1"/>
@@ -3015,13 +3006,13 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="1"/>
@@ -3029,22 +3020,22 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>150</v>
+      <c r="B39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -3053,14 +3044,14 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>151</v>
+      <c r="B40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>43</v>
@@ -3069,14 +3060,14 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>152</v>
+      <c r="B41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>43</v>
@@ -3085,13 +3076,13 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3101,14 +3092,14 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>153</v>
+      <c r="B43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>43</v>
@@ -3117,14 +3108,14 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>154</v>
+      <c r="B44" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>43</v>
@@ -3133,14 +3124,14 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>155</v>
+      <c r="B45" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
@@ -3149,14 +3140,14 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>156</v>
+      <c r="B46" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>43</v>
@@ -3165,13 +3156,13 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3181,14 +3172,14 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>157</v>
+      <c r="B48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>44</v>
@@ -3197,13 +3188,13 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3213,14 +3204,14 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>158</v>
+      <c r="B50" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>44</v>
@@ -3229,14 +3220,14 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>159</v>
+      <c r="B51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>44</v>
@@ -3245,14 +3236,14 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>160</v>
+      <c r="B52" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>45</v>
@@ -3261,14 +3252,14 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>161</v>
+      <c r="B53" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>45</v>
@@ -3277,13 +3268,13 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3293,14 +3284,14 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>162</v>
+      <c r="B55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>45</v>
@@ -3309,14 +3300,14 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>163</v>
+      <c r="B56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>45</v>
@@ -3325,14 +3316,14 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>164</v>
+      <c r="B57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>45</v>
@@ -3341,14 +3332,14 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>165</v>
+      <c r="B58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>28</v>
@@ -3357,14 +3348,14 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>166</v>
+      <c r="B59" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>28</v>
@@ -3373,14 +3364,14 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>167</v>
+      <c r="B60" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>28</v>
@@ -3389,13 +3380,13 @@
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3405,14 +3396,14 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>168</v>
+      <c r="B62" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
@@ -3421,13 +3412,13 @@
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3437,14 +3428,14 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>169</v>
+      <c r="B64" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
@@ -3453,14 +3444,14 @@
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>170</v>
+      <c r="B65" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>28</v>
@@ -3469,14 +3460,14 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>171</v>
+      <c r="B66" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>46</v>
@@ -3485,13 +3476,13 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3501,14 +3492,14 @@
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>172</v>
+      <c r="B68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>46</v>
@@ -3517,13 +3508,13 @@
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3533,14 +3524,14 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>173</v>
+      <c r="B70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>46</v>
@@ -3549,13 +3540,13 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3565,14 +3556,14 @@
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>174</v>
+      <c r="B72" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>46</v>
@@ -3581,207 +3572,207 @@
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="E76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E75" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="E77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E76" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="E78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="E79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="E81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E80" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" s="11" t="s">
+      <c r="E82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E81" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="E83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="E84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C85" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E83" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="E85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="E86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,13 +3780,13 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,13 +3794,13 @@
         <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3817,13 +3808,13 @@
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3831,13 +3822,13 @@
         <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,13 +3836,13 @@
         <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3859,13 +3850,13 @@
         <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,13 +3864,13 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,13 +3878,13 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3901,13 +3892,13 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3915,13 +3906,13 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,13 +3920,13 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3943,13 +3934,13 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,13 +3948,13 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,13 +3962,13 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,13 +3976,13 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,13 +3990,13 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,13 +4004,13 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,13 +4018,13 @@
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,13 +4032,13 @@
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,13 +4046,13 @@
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,13 +4060,13 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,13 +4074,13 @@
         <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,13 +4088,13 @@
         <v>32</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,13 +4102,13 @@
         <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,13 +4116,13 @@
         <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4139,13 +4130,13 @@
         <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,13 +4144,13 @@
         <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,13 +4158,13 @@
         <v>32</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4181,13 +4172,13 @@
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,13 +4186,13 @@
         <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,13 +4200,13 @@
         <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E118" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,13 +4214,13 @@
         <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E119" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,13 +4228,13 @@
         <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,13 +4242,13 @@
         <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,13 +4256,13 @@
         <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4279,13 +4270,13 @@
         <v>32</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,13 +4284,13 @@
         <v>32</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,13 +4298,13 @@
         <v>32</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,10 +4312,10 @@
         <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E126" t="s">
         <v>43</v>
@@ -4335,10 +4326,10 @@
         <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E127" t="s">
         <v>43</v>
@@ -4349,10 +4340,10 @@
         <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E128" t="s">
         <v>43</v>
@@ -4363,10 +4354,10 @@
         <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C129" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E129" t="s">
         <v>43</v>
@@ -4391,10 +4382,10 @@
         <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C131" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E131" t="s">
         <v>44</v>
@@ -4405,10 +4396,10 @@
         <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E132" t="s">
         <v>44</v>
@@ -4419,10 +4410,10 @@
         <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C133" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E133" t="s">
         <v>44</v>
@@ -4433,10 +4424,10 @@
         <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E134" t="s">
         <v>44</v>
@@ -4461,10 +4452,10 @@
         <v>32</v>
       </c>
       <c r="B136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E136" t="s">
         <v>44</v>
@@ -4475,10 +4466,10 @@
         <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E137" t="s">
         <v>44</v>
@@ -4489,10 +4480,10 @@
         <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E138" t="s">
         <v>44</v>
@@ -4503,10 +4494,10 @@
         <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E139" t="s">
         <v>44</v>
@@ -4517,10 +4508,10 @@
         <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E140" t="s">
         <v>44</v>
@@ -4531,10 +4522,10 @@
         <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E141" t="s">
         <v>44</v>
@@ -4545,10 +4536,10 @@
         <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C142" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E142" t="s">
         <v>44</v>
@@ -4559,10 +4550,10 @@
         <v>32</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C143" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E143" t="s">
         <v>44</v>
@@ -4573,10 +4564,10 @@
         <v>32</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C144" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E144" t="s">
         <v>44</v>
@@ -4587,10 +4578,10 @@
         <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C145" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E145" t="s">
         <v>44</v>
@@ -4615,10 +4606,10 @@
         <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C147" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E147" t="s">
         <v>44</v>
@@ -4629,10 +4620,10 @@
         <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C148" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E148" t="s">
         <v>44</v>
@@ -4643,10 +4634,10 @@
         <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C149" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E149" t="s">
         <v>44</v>
@@ -4657,13 +4648,13 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C150" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4677,7 +4668,7 @@
         <v>30</v>
       </c>
       <c r="E151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4691,7 +4682,7 @@
         <v>59</v>
       </c>
       <c r="E152" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4699,13 +4690,13 @@
         <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,7 +4710,7 @@
         <v>31</v>
       </c>
       <c r="E154" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,10 +4718,10 @@
         <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C155" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E155" t="s">
         <v>55</v>
@@ -4741,10 +4732,10 @@
         <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E156" t="s">
         <v>55</v>
@@ -4755,10 +4746,10 @@
         <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C157" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E157" t="s">
         <v>55</v>
@@ -4769,10 +4760,10 @@
         <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C158" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E158" t="s">
         <v>55</v>
@@ -4783,10 +4774,10 @@
         <v>32</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C159" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E159" t="s">
         <v>55</v>
@@ -4797,10 +4788,10 @@
         <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C160" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E160" t="s">
         <v>55</v>
@@ -4811,10 +4802,10 @@
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C161" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E161" t="s">
         <v>55</v>
@@ -4825,10 +4816,10 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C162" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E162" t="s">
         <v>55</v>
@@ -4839,10 +4830,10 @@
         <v>32</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E163" t="s">
         <v>55</v>
@@ -4853,10 +4844,10 @@
         <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C164" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E164" t="s">
         <v>55</v>
@@ -4867,10 +4858,10 @@
         <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C165" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E165" t="s">
         <v>55</v>
@@ -4881,10 +4872,10 @@
         <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E166" t="s">
         <v>55</v>
@@ -4895,13 +4886,13 @@
         <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C167" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,13 +4900,13 @@
         <v>32</v>
       </c>
       <c r="B168" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C168" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E168" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,13 +4914,13 @@
         <v>32</v>
       </c>
       <c r="B169" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C169" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E169" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4937,13 +4928,13 @@
         <v>32</v>
       </c>
       <c r="B170" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C170" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E170" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,13 +4942,13 @@
         <v>32</v>
       </c>
       <c r="B171" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C171" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E171" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4965,13 +4956,13 @@
         <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C172" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E172" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,13 +4970,13 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C173" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E173" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,13 +4984,13 @@
         <v>32</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E174" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5007,13 +4998,13 @@
         <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C175" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E175" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,13 +5012,13 @@
         <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E176" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,13 +5026,13 @@
         <v>32</v>
       </c>
       <c r="B177" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C177" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E177" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,13 +5040,13 @@
         <v>32</v>
       </c>
       <c r="B178" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C178" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E178" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,13 +5054,13 @@
         <v>32</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E179" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,13 +5068,13 @@
         <v>32</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C180" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,13 +5082,13 @@
         <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C181" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E181" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5105,13 +5096,13 @@
         <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C182" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E182" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5119,13 +5110,13 @@
         <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C183" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E183" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5133,13 +5124,13 @@
         <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E184" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,13 +5138,13 @@
         <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C185" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E185" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,13 +5152,13 @@
         <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C186" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E186" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,13 +5166,13 @@
         <v>32</v>
       </c>
       <c r="B187" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C187" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E187" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5189,13 +5180,13 @@
         <v>32</v>
       </c>
       <c r="B188" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C188" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E188" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,13 +5194,13 @@
         <v>32</v>
       </c>
       <c r="B189" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C189" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E189" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,13 +5208,13 @@
         <v>32</v>
       </c>
       <c r="B190" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E190" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5231,13 +5222,13 @@
         <v>32</v>
       </c>
       <c r="B191" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E191" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5245,13 +5236,13 @@
         <v>32</v>
       </c>
       <c r="B192" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5259,13 +5250,13 @@
         <v>32</v>
       </c>
       <c r="B193" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C193" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E193" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5273,13 +5264,13 @@
         <v>32</v>
       </c>
       <c r="B194" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C194" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E194" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,10 +5278,10 @@
         <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E195" t="s">
         <v>54</v>
@@ -5301,10 +5292,10 @@
         <v>32</v>
       </c>
       <c r="B196" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E196" t="s">
         <v>54</v>
@@ -5315,10 +5306,10 @@
         <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E197" t="s">
         <v>54</v>
@@ -5329,10 +5320,10 @@
         <v>32</v>
       </c>
       <c r="B198" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E198" t="s">
         <v>54</v>
@@ -5343,10 +5334,10 @@
         <v>32</v>
       </c>
       <c r="B199" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E199" t="s">
         <v>54</v>
@@ -5357,10 +5348,10 @@
         <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C200" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E200" t="s">
         <v>54</v>
@@ -5371,10 +5362,10 @@
         <v>32</v>
       </c>
       <c r="B201" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E201" t="s">
         <v>54</v>
@@ -5385,10 +5376,10 @@
         <v>32</v>
       </c>
       <c r="B202" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C202" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E202" t="s">
         <v>54</v>
@@ -5399,10 +5390,10 @@
         <v>32</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C203" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E203" t="s">
         <v>54</v>
@@ -5413,10 +5404,10 @@
         <v>32</v>
       </c>
       <c r="B204" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C204" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E204" t="s">
         <v>54</v>
@@ -5427,10 +5418,10 @@
         <v>32</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C205" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E205" t="s">
         <v>54</v>
@@ -5441,10 +5432,10 @@
         <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C206" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E206" t="s">
         <v>56</v>
@@ -5455,10 +5446,10 @@
         <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C207" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E207" t="s">
         <v>56</v>
@@ -5469,10 +5460,10 @@
         <v>32</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C208" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E208" t="s">
         <v>56</v>
@@ -5483,10 +5474,10 @@
         <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C209" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E209" t="s">
         <v>56</v>
@@ -5497,10 +5488,10 @@
         <v>32</v>
       </c>
       <c r="B210" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C210" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E210" t="s">
         <v>56</v>
@@ -5525,10 +5516,10 @@
         <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C212" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E212" t="s">
         <v>56</v>
@@ -5539,10 +5530,10 @@
         <v>32</v>
       </c>
       <c r="B213" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C213" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E213" t="s">
         <v>56</v>
@@ -5553,10 +5544,10 @@
         <v>32</v>
       </c>
       <c r="B214" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C214" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E214" t="s">
         <v>56</v>
@@ -5581,10 +5572,10 @@
         <v>32</v>
       </c>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C216" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E216" t="s">
         <v>56</v>
@@ -5595,10 +5586,10 @@
         <v>32</v>
       </c>
       <c r="B217" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C217" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E217" t="s">
         <v>56</v>
@@ -5609,10 +5600,10 @@
         <v>32</v>
       </c>
       <c r="B218" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C218" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E218" t="s">
         <v>56</v>
@@ -5623,10 +5614,10 @@
         <v>32</v>
       </c>
       <c r="B219" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C219" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E219" t="s">
         <v>56</v>
@@ -5637,10 +5628,10 @@
         <v>32</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C220" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E220" t="s">
         <v>56</v>
@@ -5651,10 +5642,10 @@
         <v>32</v>
       </c>
       <c r="B221" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C221" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E221" t="s">
         <v>56</v>
@@ -5665,10 +5656,10 @@
         <v>32</v>
       </c>
       <c r="B222" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C222" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E222" t="s">
         <v>56</v>
@@ -5679,10 +5670,10 @@
         <v>32</v>
       </c>
       <c r="B223" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C223" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E223" t="s">
         <v>56</v>
@@ -5693,10 +5684,10 @@
         <v>32</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C224" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E224" t="s">
         <v>56</v>
@@ -5707,10 +5698,10 @@
         <v>32</v>
       </c>
       <c r="B225" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C225" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E225" t="s">
         <v>56</v>
@@ -5721,10 +5712,10 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E226" t="s">
         <v>56</v>
@@ -5735,13 +5726,13 @@
         <v>32</v>
       </c>
       <c r="B227" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E227" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,13 +5740,13 @@
         <v>32</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C228" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E228" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5763,13 +5754,13 @@
         <v>32</v>
       </c>
       <c r="B229" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C229" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E229" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5777,13 +5768,13 @@
         <v>32</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C230" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E230" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5791,13 +5782,13 @@
         <v>32</v>
       </c>
       <c r="B231" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E231" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5805,13 +5796,13 @@
         <v>32</v>
       </c>
       <c r="B232" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C232" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E232" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5819,13 +5810,13 @@
         <v>32</v>
       </c>
       <c r="B233" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C233" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E233" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5833,13 +5824,13 @@
         <v>32</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C234" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E234" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5847,13 +5838,13 @@
         <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C235" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E235" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5861,13 +5852,13 @@
         <v>32</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C236" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E236" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,13 +5866,13 @@
         <v>32</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C237" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E237" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5889,13 +5880,13 @@
         <v>32</v>
       </c>
       <c r="B238" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C238" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E238" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5903,13 +5894,13 @@
         <v>32</v>
       </c>
       <c r="B239" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C239" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E239" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5917,13 +5908,13 @@
         <v>32</v>
       </c>
       <c r="B240" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C240" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E240" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,13 +5922,13 @@
         <v>32</v>
       </c>
       <c r="B241" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C241" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E241" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5945,13 +5936,13 @@
         <v>32</v>
       </c>
       <c r="B242" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C242" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E242" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5959,13 +5950,13 @@
         <v>32</v>
       </c>
       <c r="B243" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C243" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E243" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,13 +5964,13 @@
         <v>32</v>
       </c>
       <c r="B244" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C244" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E244" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5987,13 +5978,13 @@
         <v>32</v>
       </c>
       <c r="B245" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C245" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E245" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6001,13 +5992,13 @@
         <v>32</v>
       </c>
       <c r="B246" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C246" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E246" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6015,13 +6006,13 @@
         <v>32</v>
       </c>
       <c r="B247" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C247" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E247" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6029,13 +6020,13 @@
         <v>32</v>
       </c>
       <c r="B248" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C248" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E248" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6043,13 +6034,13 @@
         <v>32</v>
       </c>
       <c r="B249" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C249" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E249" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,13 +6048,13 @@
         <v>32</v>
       </c>
       <c r="B250" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C250" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E250" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6071,13 +6062,13 @@
         <v>32</v>
       </c>
       <c r="B251" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C251" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E251" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6085,13 +6076,13 @@
         <v>32</v>
       </c>
       <c r="B252" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C252" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E252" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6099,13 +6090,13 @@
         <v>32</v>
       </c>
       <c r="B253" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C253" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E253" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6113,13 +6104,13 @@
         <v>32</v>
       </c>
       <c r="B254" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C254" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E254" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6127,10 +6118,10 @@
         <v>32</v>
       </c>
       <c r="B255" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C255" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E255" t="s">
         <v>50</v>
@@ -6141,10 +6132,10 @@
         <v>32</v>
       </c>
       <c r="B256" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C256" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E256" t="s">
         <v>50</v>
@@ -6155,10 +6146,10 @@
         <v>32</v>
       </c>
       <c r="B257" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C257" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E257" t="s">
         <v>50</v>
@@ -6169,10 +6160,10 @@
         <v>32</v>
       </c>
       <c r="B258" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C258" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E258" t="s">
         <v>50</v>
@@ -6183,10 +6174,10 @@
         <v>32</v>
       </c>
       <c r="B259" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C259" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E259" t="s">
         <v>50</v>
@@ -6197,10 +6188,10 @@
         <v>32</v>
       </c>
       <c r="B260" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C260" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E260" t="s">
         <v>50</v>
@@ -6211,10 +6202,10 @@
         <v>32</v>
       </c>
       <c r="B261" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C261" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E261" t="s">
         <v>45</v>
@@ -6225,10 +6216,10 @@
         <v>32</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C262" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E262" t="s">
         <v>45</v>
@@ -6239,10 +6230,10 @@
         <v>32</v>
       </c>
       <c r="B263" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C263" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E263" t="s">
         <v>45</v>
@@ -6253,10 +6244,10 @@
         <v>32</v>
       </c>
       <c r="B264" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C264" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E264" t="s">
         <v>45</v>
@@ -6267,10 +6258,10 @@
         <v>32</v>
       </c>
       <c r="B265" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C265" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E265" t="s">
         <v>45</v>
@@ -6281,10 +6272,10 @@
         <v>32</v>
       </c>
       <c r="B266" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C266" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E266" t="s">
         <v>45</v>
@@ -6295,10 +6286,10 @@
         <v>32</v>
       </c>
       <c r="B267" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C267" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E267" t="s">
         <v>45</v>
@@ -6309,10 +6300,10 @@
         <v>32</v>
       </c>
       <c r="B268" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C268" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E268" t="s">
         <v>45</v>
@@ -6323,10 +6314,10 @@
         <v>32</v>
       </c>
       <c r="B269" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C269" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E269" t="s">
         <v>45</v>
@@ -6337,10 +6328,10 @@
         <v>32</v>
       </c>
       <c r="B270" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C270" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E270" t="s">
         <v>45</v>
@@ -6351,10 +6342,10 @@
         <v>32</v>
       </c>
       <c r="B271" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C271" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E271" t="s">
         <v>45</v>
@@ -6365,10 +6356,10 @@
         <v>32</v>
       </c>
       <c r="B272" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C272" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E272" t="s">
         <v>45</v>
@@ -6379,10 +6370,10 @@
         <v>32</v>
       </c>
       <c r="B273" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C273" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E273" t="s">
         <v>45</v>
@@ -6393,13 +6384,13 @@
         <v>32</v>
       </c>
       <c r="B274" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C274" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E274" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6407,13 +6398,13 @@
         <v>32</v>
       </c>
       <c r="B275" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C275" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E275" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6421,13 +6412,13 @@
         <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C276" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E276" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6435,13 +6426,13 @@
         <v>32</v>
       </c>
       <c r="B277" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C277" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E277" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6449,13 +6440,13 @@
         <v>32</v>
       </c>
       <c r="B278" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C278" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E278" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6463,13 +6454,13 @@
         <v>32</v>
       </c>
       <c r="B279" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C279" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E279" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6477,13 +6468,13 @@
         <v>32</v>
       </c>
       <c r="B280" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C280" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E280" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6491,13 +6482,13 @@
         <v>32</v>
       </c>
       <c r="B281" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C281" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E281" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6505,13 +6496,13 @@
         <v>32</v>
       </c>
       <c r="B282" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C282" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E282" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6519,13 +6510,13 @@
         <v>32</v>
       </c>
       <c r="B283" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C283" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E283" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6533,13 +6524,13 @@
         <v>32</v>
       </c>
       <c r="B284" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C284" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E284" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6553,7 +6544,7 @@
         <v>58</v>
       </c>
       <c r="E285" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6561,13 +6552,13 @@
         <v>32</v>
       </c>
       <c r="B286" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C286" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E286" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6575,13 +6566,13 @@
         <v>32</v>
       </c>
       <c r="B287" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C287" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E287" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6589,13 +6580,13 @@
         <v>32</v>
       </c>
       <c r="B288" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C288" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E288" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6603,13 +6594,13 @@
         <v>32</v>
       </c>
       <c r="B289" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C289" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E289" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6617,10 +6608,10 @@
         <v>32</v>
       </c>
       <c r="B290" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C290" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E290" t="s">
         <v>53</v>
@@ -6631,10 +6622,10 @@
         <v>32</v>
       </c>
       <c r="B291" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C291" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E291" t="s">
         <v>53</v>
@@ -6645,10 +6636,10 @@
         <v>32</v>
       </c>
       <c r="B292" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C292" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E292" t="s">
         <v>53</v>
@@ -6659,10 +6650,10 @@
         <v>32</v>
       </c>
       <c r="B293" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C293" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E293" t="s">
         <v>53</v>
@@ -6673,10 +6664,10 @@
         <v>32</v>
       </c>
       <c r="B294" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C294" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E294" t="s">
         <v>53</v>
@@ -6687,10 +6678,10 @@
         <v>32</v>
       </c>
       <c r="B295" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C295" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E295" t="s">
         <v>53</v>
@@ -6701,10 +6692,10 @@
         <v>32</v>
       </c>
       <c r="B296" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C296" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E296" t="s">
         <v>53</v>
@@ -6715,13 +6706,13 @@
         <v>32</v>
       </c>
       <c r="B297" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C297" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E297" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6729,13 +6720,13 @@
         <v>32</v>
       </c>
       <c r="B298" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C298" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E298" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6743,13 +6734,13 @@
         <v>32</v>
       </c>
       <c r="B299" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C299" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E299" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6757,13 +6748,13 @@
         <v>32</v>
       </c>
       <c r="B300" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C300" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E300" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6771,13 +6762,13 @@
         <v>32</v>
       </c>
       <c r="B301" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C301" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E301" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -6785,13 +6776,13 @@
         <v>32</v>
       </c>
       <c r="B302" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C302" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E302" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -6799,13 +6790,13 @@
         <v>32</v>
       </c>
       <c r="B303" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C303" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E303" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6813,13 +6804,13 @@
         <v>32</v>
       </c>
       <c r="B304" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C304" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E304" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6827,13 +6818,13 @@
         <v>32</v>
       </c>
       <c r="B305" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C305" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E305" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6841,13 +6832,13 @@
         <v>32</v>
       </c>
       <c r="B306" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C306" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E306" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -6855,13 +6846,13 @@
         <v>32</v>
       </c>
       <c r="B307" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C307" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E307" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -6869,13 +6860,13 @@
         <v>32</v>
       </c>
       <c r="B308" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C308" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E308" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -6883,13 +6874,13 @@
         <v>32</v>
       </c>
       <c r="B309" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C309" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E309" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -6897,13 +6888,13 @@
         <v>32</v>
       </c>
       <c r="B310" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C310" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E310" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6911,13 +6902,13 @@
         <v>32</v>
       </c>
       <c r="B311" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C311" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E311" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6925,13 +6916,13 @@
         <v>32</v>
       </c>
       <c r="B312" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C312" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E312" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6939,13 +6930,13 @@
         <v>32</v>
       </c>
       <c r="B313" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C313" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E313" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -6953,13 +6944,13 @@
         <v>32</v>
       </c>
       <c r="B314" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C314" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E314" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -6967,13 +6958,13 @@
         <v>32</v>
       </c>
       <c r="B315" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C315" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E315" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -6981,13 +6972,13 @@
         <v>32</v>
       </c>
       <c r="B316" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C316" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E316" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -6995,13 +6986,13 @@
         <v>32</v>
       </c>
       <c r="B317" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C317" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E317" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7009,13 +7000,13 @@
         <v>32</v>
       </c>
       <c r="B318" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C318" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E318" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7023,13 +7014,13 @@
         <v>32</v>
       </c>
       <c r="B319" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C319" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E319" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7037,13 +7028,13 @@
         <v>32</v>
       </c>
       <c r="B320" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C320" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E320" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7051,13 +7042,13 @@
         <v>32</v>
       </c>
       <c r="B321" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C321" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E321" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,13 +7056,13 @@
         <v>32</v>
       </c>
       <c r="B322" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E322" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7079,13 +7070,13 @@
         <v>32</v>
       </c>
       <c r="B323" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C323" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E323" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7093,13 +7084,13 @@
         <v>32</v>
       </c>
       <c r="B324" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C324" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E324" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7107,13 +7098,13 @@
         <v>32</v>
       </c>
       <c r="B325" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C325" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E325" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7121,13 +7112,13 @@
         <v>32</v>
       </c>
       <c r="B326" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C326" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E326" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7135,13 +7126,13 @@
         <v>32</v>
       </c>
       <c r="B327" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C327" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E327" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7149,13 +7140,13 @@
         <v>32</v>
       </c>
       <c r="B328" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C328" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E328" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7163,13 +7154,13 @@
         <v>32</v>
       </c>
       <c r="B329" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C329" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E329" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7177,13 +7168,13 @@
         <v>32</v>
       </c>
       <c r="B330" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C330" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E330" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7191,13 +7182,13 @@
         <v>32</v>
       </c>
       <c r="B331" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C331" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E331" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7205,13 +7196,13 @@
         <v>32</v>
       </c>
       <c r="B332" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C332" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E332" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7219,13 +7210,13 @@
         <v>32</v>
       </c>
       <c r="B333" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C333" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E333" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7233,13 +7224,13 @@
         <v>32</v>
       </c>
       <c r="B334" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C334" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E334" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7247,13 +7238,13 @@
         <v>32</v>
       </c>
       <c r="B335" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C335" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E335" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7261,13 +7252,13 @@
         <v>32</v>
       </c>
       <c r="B336" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C336" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E336" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7275,13 +7266,13 @@
         <v>32</v>
       </c>
       <c r="B337" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C337" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E337" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7289,13 +7280,13 @@
         <v>32</v>
       </c>
       <c r="B338" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C338" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E338" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,13 +7294,13 @@
         <v>32</v>
       </c>
       <c r="B339" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C339" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E339" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7317,13 +7308,13 @@
         <v>32</v>
       </c>
       <c r="B340" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C340" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E340" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7331,13 +7322,13 @@
         <v>32</v>
       </c>
       <c r="B341" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C341" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E341" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7345,13 +7336,13 @@
         <v>32</v>
       </c>
       <c r="B342" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C342" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E342" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7359,13 +7350,13 @@
         <v>32</v>
       </c>
       <c r="B343" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C343" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E343" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7373,13 +7364,13 @@
         <v>32</v>
       </c>
       <c r="B344" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C344" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E344" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7387,13 +7378,13 @@
         <v>32</v>
       </c>
       <c r="B345" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C345" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E345" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7401,13 +7392,13 @@
         <v>32</v>
       </c>
       <c r="B346" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C346" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E346" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7421,7 +7412,7 @@
         <v>60</v>
       </c>
       <c r="E347" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7429,13 +7420,13 @@
         <v>32</v>
       </c>
       <c r="B348" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C348" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E348" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7443,13 +7434,13 @@
         <v>32</v>
       </c>
       <c r="B349" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C349" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E349" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7457,13 +7448,13 @@
         <v>32</v>
       </c>
       <c r="B350" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C350" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E350" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7471,10 +7462,10 @@
         <v>32</v>
       </c>
       <c r="B351" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C351" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E351" t="s">
         <v>46</v>
@@ -7485,10 +7476,10 @@
         <v>32</v>
       </c>
       <c r="B352" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C352" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E352" t="s">
         <v>46</v>
@@ -7499,10 +7490,10 @@
         <v>32</v>
       </c>
       <c r="B353" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C353" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E353" t="s">
         <v>46</v>
@@ -7513,10 +7504,10 @@
         <v>32</v>
       </c>
       <c r="B354" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C354" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E354" t="s">
         <v>46</v>
@@ -7527,10 +7518,10 @@
         <v>32</v>
       </c>
       <c r="B355" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C355" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E355" t="s">
         <v>46</v>
@@ -7541,10 +7532,10 @@
         <v>32</v>
       </c>
       <c r="B356" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C356" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E356" t="s">
         <v>46</v>
@@ -7555,10 +7546,10 @@
         <v>32</v>
       </c>
       <c r="B357" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C357" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E357" t="s">
         <v>46</v>
@@ -7569,10 +7560,10 @@
         <v>32</v>
       </c>
       <c r="B358" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C358" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E358" t="s">
         <v>46</v>
@@ -7583,10 +7574,10 @@
         <v>32</v>
       </c>
       <c r="B359" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C359" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E359" t="s">
         <v>46</v>
@@ -7597,10 +7588,10 @@
         <v>32</v>
       </c>
       <c r="B360" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C360" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E360" t="s">
         <v>46</v>
@@ -7611,10 +7602,10 @@
         <v>32</v>
       </c>
       <c r="B361" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C361" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E361" t="s">
         <v>46</v>
@@ -7625,10 +7616,10 @@
         <v>32</v>
       </c>
       <c r="B362" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C362" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E362" t="s">
         <v>46</v>
@@ -7639,10 +7630,10 @@
         <v>32</v>
       </c>
       <c r="B363" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C363" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E363" t="s">
         <v>46</v>
@@ -7653,10 +7644,10 @@
         <v>32</v>
       </c>
       <c r="B364" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C364" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E364" t="s">
         <v>46</v>
@@ -7681,10 +7672,10 @@
         <v>32</v>
       </c>
       <c r="B366" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C366" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E366" t="s">
         <v>46</v>
@@ -7695,10 +7686,10 @@
         <v>32</v>
       </c>
       <c r="B367" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C367" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E367" t="s">
         <v>46</v>
@@ -7709,10 +7700,10 @@
         <v>32</v>
       </c>
       <c r="B368" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C368" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E368" t="s">
         <v>46</v>
@@ -7723,10 +7714,10 @@
         <v>32</v>
       </c>
       <c r="B369" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C369" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E369" t="s">
         <v>46</v>
@@ -7737,13 +7728,13 @@
         <v>32</v>
       </c>
       <c r="B370" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C370" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E370" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -7751,13 +7742,13 @@
         <v>32</v>
       </c>
       <c r="B371" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C371" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E371" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -7765,13 +7756,13 @@
         <v>32</v>
       </c>
       <c r="B372" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C372" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E372" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -7779,13 +7770,13 @@
         <v>32</v>
       </c>
       <c r="B373" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C373" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E373" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -7793,13 +7784,13 @@
         <v>32</v>
       </c>
       <c r="B374" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C374" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E374" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -7807,13 +7798,13 @@
         <v>32</v>
       </c>
       <c r="B375" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C375" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E375" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -7821,13 +7812,13 @@
         <v>32</v>
       </c>
       <c r="B376" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C376" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E376" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -7835,13 +7826,13 @@
         <v>32</v>
       </c>
       <c r="B377" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C377" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E377" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -7849,13 +7840,13 @@
         <v>32</v>
       </c>
       <c r="B378" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C378" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E378" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -7863,13 +7854,13 @@
         <v>32</v>
       </c>
       <c r="B379" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C379" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E379" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -7877,13 +7868,13 @@
         <v>32</v>
       </c>
       <c r="B380" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C380" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E380" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -7891,13 +7882,13 @@
         <v>32</v>
       </c>
       <c r="B381" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C381" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E381" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -7905,13 +7896,13 @@
         <v>32</v>
       </c>
       <c r="B382" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C382" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E382" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -7919,13 +7910,13 @@
         <v>32</v>
       </c>
       <c r="B383" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C383" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E383" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -7933,13 +7924,13 @@
         <v>32</v>
       </c>
       <c r="B384" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C384" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E384" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -7947,13 +7938,13 @@
         <v>32</v>
       </c>
       <c r="B385" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C385" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E385" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7970,7 +7961,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7999,10 +7990,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>477</v>
       </c>
       <c r="C2">
         <v>20201130</v>
